--- a/exercises/ch_01_exercises/ch_01_exercise_solutions.xlsx
+++ b/exercises/ch_01_exercises/ch_01_exercise_solutions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27419"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\modern-analytics-excel-book\exercise_solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\modern-analytics-excel-book\exercises\ch_01_exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD79EAF1-34C2-4E3E-9965-FA12FBA2F1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62FF70C-E5C7-479E-9A12-5D9E7277D9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,9 +704,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -744,7 +744,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -850,7 +850,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -992,7 +992,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1002,7 +1002,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R346"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>

--- a/exercises/ch_01_exercises/ch_01_exercise_solutions.xlsx
+++ b/exercises/ch_01_exercises/ch_01_exercise_solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27419"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\modern-analytics-excel-book\exercises\ch_01_exercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\modern-analytics-excel-book\exercises\ch_01_exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62FF70C-E5C7-479E-9A12-5D9E7277D9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E8DC45-CF5C-4F16-B376-44CB494C3A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="penguins" sheetId="1" r:id="rId1"/>
@@ -132,10 +132,10 @@
     <t>Q2. Use the #Headers reference along with UPPER()</t>
   </si>
   <si>
-    <t>The new number is approx 2.606</t>
+    <t>Click the dropdown under body_mass_g and set to Average</t>
   </si>
   <si>
-    <t>Click the dropdown on the resulting number (344) and change from Sum to Average</t>
+    <t>The average is approx. 4201.75</t>
   </si>
 </sst>
 </file>
@@ -693,7 +693,7 @@
     <tableColumn id="3" xr3:uid="{6DDA41B0-1B2F-4A97-8BF8-42BD98FC690B}" name="bill_length_mm"/>
     <tableColumn id="4" xr3:uid="{8F2AD9FD-AACB-47D0-92E7-B949DDCA0EB1}" name="bill_depth_mm"/>
     <tableColumn id="5" xr3:uid="{EE8A567C-BF09-407F-ADE9-903A3923C552}" name="flipper_length_mm"/>
-    <tableColumn id="6" xr3:uid="{3FEC0A5A-F070-46F3-956E-41B76EDE1B47}" name="body_mass_g"/>
+    <tableColumn id="6" xr3:uid="{3FEC0A5A-F070-46F3-956E-41B76EDE1B47}" name="body_mass_g" totalsRowFunction="average"/>
     <tableColumn id="7" xr3:uid="{649E97CE-C301-4E2C-A874-A1E16CD0DA21}" name="sex"/>
     <tableColumn id="8" xr3:uid="{18BDA73D-907B-4F47-AF55-B660756473F9}" name="bill_ratio" totalsRowFunction="average" dataDxfId="0">
       <calculatedColumnFormula>IFERROR(penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]], "")</calculatedColumnFormula>
@@ -1002,9 +1002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R346"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
@@ -1442,7 +1440,7 @@
         <v>1.8207547169811322</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.65">
@@ -1472,7 +1470,7 @@
         <v>1.6398104265402844</v>
       </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.65">
@@ -10334,6 +10332,10 @@
     <row r="346" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A346" t="s">
         <v>21</v>
+      </c>
+      <c r="F346">
+        <f>SUBTOTAL(101,penguins[body_mass_g])</f>
+        <v>4201.7543859649122</v>
       </c>
       <c r="H346">
         <f>SUBTOTAL(101,penguins[bill_ratio])</f>
